--- a/src/main/resources/excel/user.xlsx
+++ b/src/main/resources/excel/user.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="18">
   <si>
     <t>firstName</t>
   </si>
@@ -1467,6 +1467,34 @@
         <v>13</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
